--- a/Results/RQ1/EMC-ext.xlsx
+++ b/Results/RQ1/EMC-ext.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannali/Desktop/Results/RQ1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannali/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A6EB2-9393-D54C-97E0-73A19F5D161D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172EB8FE-9B47-8943-B4CD-A4B824063E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14240" yWindow="480" windowWidth="24160" windowHeight="20020" xr2:uid="{ADB74524-9484-914D-9230-5C3E6BBF6284}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{935CC0B1-D82A-AE4B-8461-83D22A96497E}"/>
   </bookViews>
   <sheets>
-    <sheet name="packetLoss(%)" sheetId="9" r:id="rId1"/>
+    <sheet name="packetLoss(%)" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,39 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>OSPF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenAdapt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DICES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OSPF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>average</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GenAdapt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>run</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -79,23 +76,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <family val="4"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
+      <color rgb="FFC814C9"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
     <font>
@@ -136,26 +126,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,237 +455,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF9634-A2FE-D443-98AD-EE15D9383B7F}">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9452E5B-4B2E-7A48-8F13-F322B4AE55FA}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.1599999999999999</v>
+        <v>36.61</v>
       </c>
       <c r="C2" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D2" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>3.53</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.01</v>
+        <v>36.51</v>
       </c>
       <c r="C3" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.02</v>
+        <v>36.380000000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>2.74</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.08</v>
+        <v>36.36</v>
       </c>
       <c r="C5" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>3.75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.04</v>
+        <v>36.56</v>
       </c>
       <c r="C6" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2.81</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.01</v>
+        <v>36.25</v>
       </c>
       <c r="C7" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>4.01</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.1</v>
+        <v>36.53</v>
       </c>
       <c r="C8" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.37</v>
+        <v>36.21</v>
       </c>
       <c r="C9" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>6.81</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.09</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>3.54</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.21</v>
+        <v>36.72</v>
       </c>
       <c r="C11" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>6.83</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.18</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>7.2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.01</v>
+        <v>36.5</v>
       </c>
       <c r="C13" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>3.58</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.3</v>
+        <v>36.24</v>
       </c>
       <c r="C14" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>3.75</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.11</v>
+        <v>36.65</v>
       </c>
       <c r="C15" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>6.58</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.3</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.01</v>
+        <v>3.91</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -709,13 +694,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0.01</v>
+        <v>36.6</v>
       </c>
       <c r="C17" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.22</v>
+        <v>3.9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -723,13 +708,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>36.53</v>
       </c>
       <c r="C18" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.05</v>
+        <v>3.69</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.72</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -737,13 +722,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0.08</v>
+        <v>36.32</v>
       </c>
       <c r="C19" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.1</v>
+        <v>2.89</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.79</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -751,13 +736,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.04</v>
+        <v>36.5</v>
       </c>
       <c r="C20" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.28000000000000003</v>
+        <v>4.04</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.09</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -765,13 +750,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0.34</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.01</v>
+        <v>6.72</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.89</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -779,13 +764,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.01</v>
+        <v>36.56</v>
       </c>
       <c r="C22" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.02</v>
+        <v>3.06</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.85</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -793,13 +778,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0.16</v>
+        <v>36.49</v>
       </c>
       <c r="C23" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.06</v>
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6.63</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -807,13 +792,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>3.43</v>
+        <v>36.32</v>
       </c>
       <c r="C24" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.01</v>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.99</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -821,13 +806,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>0.14000000000000001</v>
+        <v>36.47</v>
       </c>
       <c r="C25" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.08</v>
+        <v>3.93</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -835,13 +820,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0.81</v>
+        <v>36.51</v>
       </c>
       <c r="C26" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.02</v>
+        <v>10.09</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.72</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -849,13 +834,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>0.05</v>
+        <v>36.4</v>
       </c>
       <c r="C27" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.14000000000000001</v>
+        <v>2.92</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -863,13 +848,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.22</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="C28" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.03</v>
+        <v>3.64</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.98</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -877,13 +862,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>36.42</v>
       </c>
       <c r="C29" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.09</v>
+        <v>3.69</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.66</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -891,13 +876,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0.26</v>
+        <v>37.04</v>
       </c>
       <c r="C30" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.02</v>
+        <v>6.45</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.74</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -905,33 +890,35 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>0.16</v>
+        <v>35.83</v>
       </c>
       <c r="C31" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.29466666666666669</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.187</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.107</v>
+        <v>36.478333333333339</v>
+      </c>
+      <c r="C33" s="3">
+        <f>AVERAGE(C2:C31)</f>
+        <v>4.509666666666666</v>
+      </c>
+      <c r="D33" s="3">
+        <f>AVERAGE(D2:D31)</f>
+        <v>4.0736666666666661</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>